--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\projects\com\kademika\tankV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\projects\com\kademika\tankV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,15 +94,192 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Прямоугольник 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="847725"/>
+          <a:ext cx="752475" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Прямоугольник 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="1314450"/>
+          <a:ext cx="752475" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Прямоугольник 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="381000"/>
+          <a:ext cx="752475" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>361951</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -112,7 +289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5248276" y="1876426"/>
+          <a:off x="5200651" y="476251"/>
           <a:ext cx="400050" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -154,15 +331,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -172,7 +349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="485775"/>
+          <a:off x="7467600" y="952500"/>
           <a:ext cx="400050" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1518,65 +1695,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Прямоугольник 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5029200" y="381000"/>
-          <a:ext cx="752475" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1758,65 +1876,6 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Прямоугольник 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="847725"/>
-          <a:ext cx="752475" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3255,65 +3314,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4267200" y="2247900"/>
-          <a:ext cx="752475" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Прямоугольник 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="1314450"/>
           <a:ext cx="752475" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
